--- a/Code/Results/Cases/Case_4_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40.15149413982067</v>
+        <v>45.36402809467413</v>
       </c>
       <c r="C2">
-        <v>23.14071869233462</v>
+        <v>21.25658086716114</v>
       </c>
       <c r="D2">
-        <v>7.336371033912557</v>
+        <v>12.02763682269174</v>
       </c>
       <c r="E2">
-        <v>5.789532107468546</v>
+        <v>10.44940240420458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.158820147307229</v>
+        <v>3.928581206466307</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.516382898705269</v>
+        <v>6.791925973068803</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.98117316791456</v>
+        <v>16.71661688560557</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.443872650105</v>
+        <v>28.3175446150848</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.04372120651717</v>
+        <v>45.11839541230295</v>
       </c>
       <c r="C3">
-        <v>21.64292784487744</v>
+        <v>20.9730771423608</v>
       </c>
       <c r="D3">
-        <v>7.248452758463044</v>
+        <v>12.05119707768959</v>
       </c>
       <c r="E3">
-        <v>5.837958211105051</v>
+        <v>10.46959479310382</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.18164123921583</v>
+        <v>3.935609978724304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.443419652655562</v>
+        <v>6.776634613213098</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.72821360254863</v>
+        <v>16.73395220772517</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.16895604514154</v>
+        <v>28.24225038089121</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.75665067642637</v>
+        <v>44.98030645520984</v>
       </c>
       <c r="C4">
-        <v>20.71323299512107</v>
+        <v>20.80463372797779</v>
       </c>
       <c r="D4">
-        <v>7.200843803456721</v>
+        <v>12.06775729287448</v>
       </c>
       <c r="E4">
-        <v>5.868625566856935</v>
+        <v>10.48269380494959</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195705435515759</v>
+        <v>3.940136018303979</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.399263240495549</v>
+        <v>6.767069876757239</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.5830178892063</v>
+        <v>16.74801561131698</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.00740457567453</v>
+        <v>28.19704269424473</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.23378429862384</v>
+        <v>44.92726309355003</v>
       </c>
       <c r="C5">
-        <v>20.3316607199781</v>
+        <v>20.73748066378642</v>
       </c>
       <c r="D5">
-        <v>7.18294284746274</v>
+        <v>12.07503116076184</v>
       </c>
       <c r="E5">
-        <v>5.881370557333222</v>
+        <v>10.48820865939218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.201464716189704</v>
+        <v>3.942033597875967</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.381386534368178</v>
+        <v>6.76312756286462</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.52624081013248</v>
+        <v>16.75460363003413</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.94322788423741</v>
+        <v>28.17887834457014</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>36.14706027892564</v>
+        <v>44.91865101897908</v>
       </c>
       <c r="C6">
-        <v>20.26813472272635</v>
+        <v>20.72642195553177</v>
       </c>
       <c r="D6">
-        <v>7.180058223604063</v>
+        <v>12.07627068266781</v>
       </c>
       <c r="E6">
-        <v>5.88350217556531</v>
+        <v>10.48913510105391</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.202423127654026</v>
+        <v>3.942351910001771</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.378424046928955</v>
+        <v>6.762470238696587</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.51695335094587</v>
+        <v>16.75574924507839</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.93266704314075</v>
+        <v>28.17587778001117</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.74959259312065</v>
+        <v>44.97957798675992</v>
       </c>
       <c r="C7">
-        <v>20.70809809357693</v>
+        <v>20.80372195494717</v>
       </c>
       <c r="D7">
-        <v>7.200596438347029</v>
+        <v>12.06785326480293</v>
       </c>
       <c r="E7">
-        <v>5.868796430668032</v>
+        <v>10.48276746303454</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.195782975629326</v>
+        <v>3.940161394011405</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.399021727171123</v>
+        <v>6.767016890479888</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.58224267895817</v>
+        <v>16.74810099320417</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.00653256040913</v>
+        <v>28.19679667728429</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>39.42308720589913</v>
+        <v>45.27670996494214</v>
       </c>
       <c r="C8">
-        <v>22.62619737264359</v>
+        <v>21.15770567893496</v>
       </c>
       <c r="D8">
-        <v>7.304668411247127</v>
+        <v>12.03532508679108</v>
       </c>
       <c r="E8">
-        <v>5.80604398172562</v>
+        <v>10.45621969676025</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.16668781432655</v>
+        <v>3.930961244653715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.491062514038038</v>
+        <v>6.786689748535248</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.89175138661365</v>
+        <v>16.72188278202132</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.34746929582091</v>
+        <v>28.29137132871922</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44.74394987502532</v>
+        <v>45.95894158207147</v>
       </c>
       <c r="C9">
-        <v>26.32668493996822</v>
+        <v>21.8931416940407</v>
       </c>
       <c r="D9">
-        <v>7.564757229360852</v>
+        <v>11.98820419611294</v>
       </c>
       <c r="E9">
-        <v>5.68971814286889</v>
+        <v>10.40968944344863</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.109221388887985</v>
+        <v>3.914575554973974</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.679152102652346</v>
+        <v>6.82389288587176</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.58761349499727</v>
+        <v>16.69771892908696</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.0826505162609</v>
+        <v>28.48491372854141</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>48.75894229516046</v>
+        <v>46.51860825849026</v>
       </c>
       <c r="C10">
-        <v>29.05336532445365</v>
+        <v>22.45393319780663</v>
       </c>
       <c r="D10">
-        <v>7.799423077289125</v>
+        <v>11.96381451208149</v>
       </c>
       <c r="E10">
-        <v>5.607243916037091</v>
+        <v>10.37883208530067</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.065278055954468</v>
+        <v>3.903527813202675</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.826528155464866</v>
+        <v>6.85041633300516</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.1689694247543</v>
+        <v>16.69673092016818</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.67964038647063</v>
+        <v>28.63198597924905</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50.63206640827236</v>
+        <v>46.78532944910198</v>
       </c>
       <c r="C11">
-        <v>30.36383998881207</v>
+        <v>22.7124742518848</v>
       </c>
       <c r="D11">
-        <v>7.91855818893345</v>
+        <v>11.95495467413972</v>
       </c>
       <c r="E11">
-        <v>5.570060469486212</v>
+        <v>10.36550788319948</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.044447023301109</v>
+        <v>3.898713030393746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.89704281704389</v>
+        <v>6.862313027791774</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.45393353315422</v>
+        <v>16.69995028527619</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.9687149228218</v>
+        <v>28.69993772446768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>51.3511702883526</v>
+        <v>46.88801899593118</v>
       </c>
       <c r="C12">
-        <v>30.86413905672525</v>
+        <v>22.810785299766</v>
       </c>
       <c r="D12">
-        <v>7.965792754599047</v>
+        <v>11.95192218116818</v>
       </c>
       <c r="E12">
-        <v>5.555995139485841</v>
+        <v>10.36056416750896</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.036383010929994</v>
+        <v>3.896919804492406</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.924420679306694</v>
+        <v>6.866794172956797</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.56543241919072</v>
+        <v>16.70169881150214</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.08130269963886</v>
+        <v>28.72581813323545</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51.1958005364838</v>
+        <v>46.86582881163408</v>
       </c>
       <c r="C13">
-        <v>30.75616670839175</v>
+        <v>22.78959551615713</v>
       </c>
       <c r="D13">
-        <v>7.955518999908587</v>
+        <v>11.9525609204925</v>
       </c>
       <c r="E13">
-        <v>5.559024285883671</v>
+        <v>10.36162436480361</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.038128628581315</v>
+        <v>3.897304677042175</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.91849085504078</v>
+        <v>6.865830133271264</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.54124677135209</v>
+        <v>16.70129866194095</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.05690424132143</v>
+        <v>28.72023775261239</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50.6910092589693</v>
+        <v>46.7937442804199</v>
       </c>
       <c r="C14">
-        <v>30.40490331845153</v>
+        <v>22.72055469335303</v>
       </c>
       <c r="D14">
-        <v>7.92239935844179</v>
+        <v>11.95469871873977</v>
       </c>
       <c r="E14">
-        <v>5.568903215638894</v>
+        <v>10.36509912283422</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.043787493599878</v>
+        <v>3.898564900531645</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.899280445892986</v>
+        <v>6.862682170363188</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.46303018059454</v>
+        <v>16.70008351741256</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.9779108402839</v>
+        <v>28.70206395677621</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>50.38319724392155</v>
+        <v>46.74980854326887</v>
       </c>
       <c r="C15">
-        <v>30.19034965755614</v>
+        <v>22.67831566634847</v>
       </c>
       <c r="D15">
-        <v>7.902400757426826</v>
+        <v>11.95605021815957</v>
       </c>
       <c r="E15">
-        <v>5.574955229128958</v>
+        <v>10.36724075964476</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.047228890356785</v>
+        <v>3.899340725437728</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.887607735676721</v>
+        <v>6.860750855531054</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.41561060026518</v>
+        <v>16.6994082036051</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.92995296533412</v>
+        <v>28.69095126252996</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>48.63770582592181</v>
+        <v>46.50141672634579</v>
       </c>
       <c r="C16">
-        <v>28.97161594136638</v>
+        <v>22.43709860563342</v>
       </c>
       <c r="D16">
-        <v>7.791913209943463</v>
+        <v>11.96443859724979</v>
       </c>
       <c r="E16">
-        <v>5.609678022776202</v>
+        <v>10.37971714406569</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.066618190391554</v>
+        <v>3.903846688817989</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.822003499717751</v>
+        <v>6.849635492063136</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.15080878054013</v>
+        <v>16.69659451674038</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.66114827349393</v>
+        <v>28.62756608104915</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>47.58070538593216</v>
+        <v>46.35210364533675</v>
       </c>
       <c r="C17">
-        <v>28.25749189682021</v>
+        <v>22.28993738292712</v>
       </c>
       <c r="D17">
-        <v>7.727515151043604</v>
+        <v>11.97015788425233</v>
       </c>
       <c r="E17">
-        <v>5.631043757733312</v>
+        <v>10.38755314410367</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.078263612607959</v>
+        <v>3.906664754181182</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.782755076388374</v>
+        <v>6.842773601038562</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.99400352580734</v>
+        <v>16.69580947552983</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.50110135933369</v>
+        <v>28.58894825247245</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46.97690065125715</v>
+        <v>46.26736763580112</v>
       </c>
       <c r="C18">
-        <v>27.84835989263705</v>
+        <v>22.20562253212654</v>
       </c>
       <c r="D18">
-        <v>7.691615500307774</v>
+        <v>11.97365778540208</v>
       </c>
       <c r="E18">
-        <v>5.643366572749273</v>
+        <v>10.39212735066336</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.084886685605054</v>
+        <v>3.908305498790194</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.760494030658032</v>
+        <v>6.838810894612175</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.90569442192001</v>
+        <v>16.69570317138247</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.41064866765019</v>
+        <v>28.56683506574416</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46.77310039514742</v>
+        <v>46.23887576046819</v>
       </c>
       <c r="C19">
-        <v>27.71005795610161</v>
+        <v>22.17713403008882</v>
       </c>
       <c r="D19">
-        <v>7.679647639612382</v>
+        <v>11.97487887929227</v>
       </c>
       <c r="E19">
-        <v>5.647545562910594</v>
+        <v>10.39368765081332</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.087117654993912</v>
+        <v>3.908864448097009</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.753006210196542</v>
+        <v>6.837466441899211</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.87610143193234</v>
+        <v>16.69572641198101</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.38028262512344</v>
+        <v>28.55936494541422</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47.69277629963549</v>
+        <v>46.36788017479</v>
       </c>
       <c r="C20">
-        <v>28.33333139785472</v>
+        <v>22.3055695899588</v>
       </c>
       <c r="D20">
-        <v>7.73425027514577</v>
+        <v>11.96952728095636</v>
       </c>
       <c r="E20">
-        <v>5.628766055358156</v>
+        <v>10.38671204384207</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.077032049638859</v>
+        <v>3.906362712207068</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.786899585164659</v>
+        <v>6.843505706528474</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.01049706802343</v>
+        <v>16.69585730027201</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.51796903656417</v>
+        <v>28.59304897904398</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>50.83898230206629</v>
+        <v>46.81487190263252</v>
       </c>
       <c r="C21">
-        <v>30.50794651224692</v>
+        <v>22.7408232916382</v>
       </c>
       <c r="D21">
-        <v>7.932066581345413</v>
+        <v>11.95406203330783</v>
       </c>
       <c r="E21">
-        <v>5.566001419762344</v>
+        <v>10.36407574263278</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.042130645311183</v>
+        <v>3.898193929781805</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.904902968932008</v>
+        <v>6.863607447961881</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.48590061569775</v>
+        <v>16.70042605286939</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.0010225723952</v>
+        <v>28.70739802712765</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>53.00357117585784</v>
+        <v>47.1168178046948</v>
       </c>
       <c r="C22">
-        <v>31.97484215284794</v>
+        <v>23.02762071254741</v>
       </c>
       <c r="D22">
-        <v>8.073960891436588</v>
+        <v>11.94583507515951</v>
       </c>
       <c r="E22">
-        <v>5.525048822742703</v>
+        <v>10.34987508820818</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.018255812838568</v>
+        <v>3.893030043645768</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.986093837371823</v>
+        <v>6.876606135426762</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.81801201354632</v>
+        <v>16.70649856646093</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.3353662734569</v>
+        <v>28.78299653715303</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>51.81869679816135</v>
+        <v>46.95478513346802</v>
       </c>
       <c r="C23">
-        <v>31.18864952821248</v>
+        <v>22.87436629161191</v>
       </c>
       <c r="D23">
-        <v>7.996931297323308</v>
+        <v>11.9500535333905</v>
       </c>
       <c r="E23">
-        <v>5.546912711516986</v>
+        <v>10.35740015694204</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.031118995605112</v>
+        <v>3.895770203856253</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.942312857092328</v>
+        <v>6.86968106611702</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.63852106281633</v>
+        <v>16.70297458042356</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.15495769242305</v>
+        <v>28.74256980774595</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>47.64209717237225</v>
+        <v>46.3607441564813</v>
       </c>
       <c r="C24">
-        <v>28.29904006491561</v>
+        <v>22.29850135898714</v>
       </c>
       <c r="D24">
-        <v>7.731201849638551</v>
+        <v>11.96981171706112</v>
       </c>
       <c r="E24">
-        <v>5.629795679595176</v>
+        <v>10.38709208972247</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.07758905975845</v>
+        <v>3.906499201192775</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.785024920143059</v>
+        <v>6.84317477684275</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.00303465035895</v>
+        <v>16.69583460416841</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.51033834207457</v>
+        <v>28.59119476406769</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.2917735143491</v>
+        <v>45.76393685467961</v>
       </c>
       <c r="C25">
-        <v>25.32856820244294</v>
+        <v>21.69024670564546</v>
       </c>
       <c r="D25">
-        <v>7.487548106611665</v>
+        <v>11.99916002331836</v>
       </c>
       <c r="E25">
-        <v>5.720570708026314</v>
+        <v>10.42168952531537</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.124942706142725</v>
+        <v>3.918832970437621</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.627054071805994</v>
+        <v>6.813972725128665</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.38845558133786</v>
+        <v>16.70132192599938</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.87518534081388</v>
+        <v>28.43169451730951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.36402809467413</v>
+        <v>40.15149413982071</v>
       </c>
       <c r="C2">
-        <v>21.25658086716114</v>
+        <v>23.1407186923347</v>
       </c>
       <c r="D2">
-        <v>12.02763682269174</v>
+        <v>7.336371033912463</v>
       </c>
       <c r="E2">
-        <v>10.44940240420458</v>
+        <v>5.789532107468546</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.928581206466307</v>
+        <v>2.158820147307121</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.791925973068803</v>
+        <v>4.516382898705301</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.71661688560557</v>
+        <v>10.98117316791457</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>28.3175446150848</v>
+        <v>22.44387265010499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45.11839541230295</v>
+        <v>38.04372120651713</v>
       </c>
       <c r="C3">
-        <v>20.9730771423608</v>
+        <v>21.64292784487758</v>
       </c>
       <c r="D3">
-        <v>12.05119707768959</v>
+        <v>7.248452758462791</v>
       </c>
       <c r="E3">
-        <v>10.46959479310382</v>
+        <v>5.837958211104921</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.935609978724304</v>
+        <v>2.181641239215705</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.776634613213098</v>
+        <v>4.44341965265563</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.73395220772517</v>
+        <v>10.72821360254854</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>28.24225038089121</v>
+        <v>22.16895604514152</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44.98030645520984</v>
+        <v>36.75665067642625</v>
       </c>
       <c r="C4">
-        <v>20.80463372797779</v>
+        <v>20.71323299512106</v>
       </c>
       <c r="D4">
-        <v>12.06775729287448</v>
+        <v>7.20084380345679</v>
       </c>
       <c r="E4">
-        <v>10.48269380494959</v>
+        <v>5.868625566856944</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.940136018303979</v>
+        <v>2.195705435516143</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.767069876757239</v>
+        <v>4.39926324049561</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.74801561131698</v>
+        <v>10.58301788920635</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>28.19704269424473</v>
+        <v>22.00740457567444</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.92726309355003</v>
+        <v>36.23378429862385</v>
       </c>
       <c r="C5">
-        <v>20.73748066378642</v>
+        <v>20.3316607199781</v>
       </c>
       <c r="D5">
-        <v>12.07503116076184</v>
+        <v>7.182942847462785</v>
       </c>
       <c r="E5">
-        <v>10.48820865939218</v>
+        <v>5.881370557333354</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.942033597875967</v>
+        <v>2.201464716190351</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.76312756286462</v>
+        <v>4.381386534368309</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.75460363003413</v>
+        <v>10.52624081013254</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28.17887834457014</v>
+        <v>21.94322788423746</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44.91865101897908</v>
+        <v>36.14706027892575</v>
       </c>
       <c r="C6">
-        <v>20.72642195553177</v>
+        <v>20.26813472272639</v>
       </c>
       <c r="D6">
-        <v>12.07627068266781</v>
+        <v>7.180058223604053</v>
       </c>
       <c r="E6">
-        <v>10.48913510105391</v>
+        <v>5.883502175565507</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.942351910001771</v>
+        <v>2.202423127653769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.762470238696587</v>
+        <v>4.378424046929088</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.75574924507839</v>
+        <v>10.51695335094593</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>28.17587778001117</v>
+        <v>21.93266704314078</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>44.97957798675992</v>
+        <v>36.74959259312083</v>
       </c>
       <c r="C7">
-        <v>20.80372195494717</v>
+        <v>20.70809809357696</v>
       </c>
       <c r="D7">
-        <v>12.06785326480293</v>
+        <v>7.200596438347192</v>
       </c>
       <c r="E7">
-        <v>10.48276746303454</v>
+        <v>5.868796430667907</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.940161394011405</v>
+        <v>2.195782975629319</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.767016890479888</v>
+        <v>4.399021727170926</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.74810099320417</v>
+        <v>10.5822426789581</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>28.19679667728429</v>
+        <v>22.00653256040929</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45.27670996494214</v>
+        <v>39.42308720589902</v>
       </c>
       <c r="C8">
-        <v>21.15770567893496</v>
+        <v>22.62619737264357</v>
       </c>
       <c r="D8">
-        <v>12.03532508679108</v>
+        <v>7.304668411247346</v>
       </c>
       <c r="E8">
-        <v>10.45621969676025</v>
+        <v>5.80604398172562</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.930961244653715</v>
+        <v>2.166687814326809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.786689748535248</v>
+        <v>4.49106251403791</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.72188278202132</v>
+        <v>10.89175138661364</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>28.29137132871922</v>
+        <v>22.34746929582082</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.95894158207147</v>
+        <v>44.74394987502526</v>
       </c>
       <c r="C9">
-        <v>21.8931416940407</v>
+        <v>26.32668493996818</v>
       </c>
       <c r="D9">
-        <v>11.98820419611294</v>
+        <v>7.564757229360901</v>
       </c>
       <c r="E9">
-        <v>10.40968944344863</v>
+        <v>5.689718142869024</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.914575554973974</v>
+        <v>2.109221388887859</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.82389288587176</v>
+        <v>4.67915210265231</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.69771892908696</v>
+        <v>11.58761349499732</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.48491372854141</v>
+        <v>23.08265051626089</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>46.51860825849026</v>
+        <v>48.75894229516052</v>
       </c>
       <c r="C10">
-        <v>22.45393319780663</v>
+        <v>29.05336532445372</v>
       </c>
       <c r="D10">
-        <v>11.96381451208149</v>
+        <v>7.799423077289007</v>
       </c>
       <c r="E10">
-        <v>10.37883208530067</v>
+        <v>5.607243916037087</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.903527813202675</v>
+        <v>2.065278055954464</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.85041633300516</v>
+        <v>4.826528155464923</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.69673092016818</v>
+        <v>12.16896942475433</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>28.63198597924905</v>
+        <v>23.67964038647064</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.78532944910198</v>
+        <v>50.63206640827229</v>
       </c>
       <c r="C11">
-        <v>22.7124742518848</v>
+        <v>30.36383998881217</v>
       </c>
       <c r="D11">
-        <v>11.95495467413972</v>
+        <v>7.91855818893354</v>
       </c>
       <c r="E11">
-        <v>10.36550788319948</v>
+        <v>5.570060469486342</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.898713030393746</v>
+        <v>2.04444702330139</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.862313027791774</v>
+        <v>4.897042817043922</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.69995028527619</v>
+        <v>12.45393353315422</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>28.69993772446768</v>
+        <v>23.96871492282173</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46.88801899593118</v>
+        <v>51.35117028835251</v>
       </c>
       <c r="C12">
-        <v>22.810785299766</v>
+        <v>30.8641390567251</v>
       </c>
       <c r="D12">
-        <v>11.95192218116818</v>
+        <v>7.96579275459906</v>
       </c>
       <c r="E12">
-        <v>10.36056416750896</v>
+        <v>5.55599513948571</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.896919804492406</v>
+        <v>2.036383010930235</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.866794172956797</v>
+        <v>4.92442067930664</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.70169881150214</v>
+        <v>12.56543241919071</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28.72581813323545</v>
+        <v>24.08130269963892</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46.86582881163408</v>
+        <v>51.19580053648385</v>
       </c>
       <c r="C13">
-        <v>22.78959551615713</v>
+        <v>30.75616670839188</v>
       </c>
       <c r="D13">
-        <v>11.9525609204925</v>
+        <v>7.955518999908662</v>
       </c>
       <c r="E13">
-        <v>10.36162436480361</v>
+        <v>5.559024285883729</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.897304677042175</v>
+        <v>2.03812862858133</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.865830133271264</v>
+        <v>4.918490855040751</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.70129866194095</v>
+        <v>12.54124677135209</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>28.72023775261239</v>
+        <v>24.05690424132134</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.7937442804199</v>
+        <v>50.69100925896934</v>
       </c>
       <c r="C14">
-        <v>22.72055469335303</v>
+        <v>30.40490331845158</v>
       </c>
       <c r="D14">
-        <v>11.95469871873977</v>
+        <v>7.922399358441938</v>
       </c>
       <c r="E14">
-        <v>10.36509912283422</v>
+        <v>5.568903215638788</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.898564900531645</v>
+        <v>2.04378749359964</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.862682170363188</v>
+        <v>4.899280445892852</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.70008351741256</v>
+        <v>12.46303018059456</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>28.70206395677621</v>
+        <v>23.97791084028386</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.74980854326887</v>
+        <v>50.38319724392147</v>
       </c>
       <c r="C15">
-        <v>22.67831566634847</v>
+        <v>30.19034965755587</v>
       </c>
       <c r="D15">
-        <v>11.95605021815957</v>
+        <v>7.902400757426791</v>
       </c>
       <c r="E15">
-        <v>10.36724075964476</v>
+        <v>5.574955229128893</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.899340725437728</v>
+        <v>2.04722889035679</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.860750855531054</v>
+        <v>4.887607735676789</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.6994082036051</v>
+        <v>12.41561060026516</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28.69095126252996</v>
+        <v>23.92995296533418</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>46.50141672634579</v>
+        <v>48.63770582592178</v>
       </c>
       <c r="C16">
-        <v>22.43709860563342</v>
+        <v>28.97161594136624</v>
       </c>
       <c r="D16">
-        <v>11.96443859724979</v>
+        <v>7.791913209943551</v>
       </c>
       <c r="E16">
-        <v>10.37971714406569</v>
+        <v>5.609678022776144</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.903846688817989</v>
+        <v>2.066618190391701</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.849635492063136</v>
+        <v>4.82200349971773</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.69659451674038</v>
+        <v>12.15080878054006</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.62756608104915</v>
+        <v>23.66114827349396</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>46.35210364533675</v>
+        <v>47.58070538593223</v>
       </c>
       <c r="C17">
-        <v>22.28993738292712</v>
+        <v>28.25749189682028</v>
       </c>
       <c r="D17">
-        <v>11.97015788425233</v>
+        <v>7.727515151043586</v>
       </c>
       <c r="E17">
-        <v>10.38755314410367</v>
+        <v>5.631043757733424</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.906664754181182</v>
+        <v>2.078263612607807</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.842773601038562</v>
+        <v>4.78275507638841</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.69580947552983</v>
+        <v>11.99400352580735</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28.58894825247245</v>
+        <v>23.50110135933368</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46.26736763580112</v>
+        <v>46.97690065125692</v>
       </c>
       <c r="C18">
-        <v>22.20562253212654</v>
+        <v>27.84835989263691</v>
       </c>
       <c r="D18">
-        <v>11.97365778540208</v>
+        <v>7.691615500307757</v>
       </c>
       <c r="E18">
-        <v>10.39212735066336</v>
+        <v>5.643366572749257</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.908305498790194</v>
+        <v>2.084886685605428</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.838810894612175</v>
+        <v>4.760494030658065</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.69570317138247</v>
+        <v>11.90569442192002</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28.56683506574416</v>
+        <v>23.41064866765018</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46.23887576046819</v>
+        <v>46.77310039514718</v>
       </c>
       <c r="C19">
-        <v>22.17713403008882</v>
+        <v>27.7100579561012</v>
       </c>
       <c r="D19">
-        <v>11.97487887929227</v>
+        <v>7.679647639612512</v>
       </c>
       <c r="E19">
-        <v>10.39368765081332</v>
+        <v>5.64754556291055</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.908864448097009</v>
+        <v>2.087117654994078</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.837466441899211</v>
+        <v>4.753006210196438</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.69572641198101</v>
+        <v>11.87610143193243</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>28.55936494541422</v>
+        <v>23.38028262512357</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46.36788017479</v>
+        <v>47.69277629963551</v>
       </c>
       <c r="C20">
-        <v>22.3055695899588</v>
+        <v>28.33333139785473</v>
       </c>
       <c r="D20">
-        <v>11.96952728095636</v>
+        <v>7.734250275145762</v>
       </c>
       <c r="E20">
-        <v>10.38671204384207</v>
+        <v>5.628766055358145</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.906362712207068</v>
+        <v>2.077032049639121</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.843505706528474</v>
+        <v>4.786899585164702</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.69585730027201</v>
+        <v>12.01049706802341</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>28.59304897904398</v>
+        <v>23.51796903656419</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.81487190263252</v>
+        <v>50.83898230206629</v>
       </c>
       <c r="C21">
-        <v>22.7408232916382</v>
+        <v>30.5079465122469</v>
       </c>
       <c r="D21">
-        <v>11.95406203330783</v>
+        <v>7.932066581345359</v>
       </c>
       <c r="E21">
-        <v>10.36407574263278</v>
+        <v>5.566001419762222</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.898193929781805</v>
+        <v>2.042130645311302</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.863607447961881</v>
+        <v>4.904902968931975</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.70042605286939</v>
+        <v>12.48590061569775</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>28.70739802712765</v>
+        <v>24.00102257239521</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>47.1168178046948</v>
+        <v>53.00357117585759</v>
       </c>
       <c r="C22">
-        <v>23.02762071254741</v>
+        <v>31.97484215284796</v>
       </c>
       <c r="D22">
-        <v>11.94583507515951</v>
+        <v>8.073960891436606</v>
       </c>
       <c r="E22">
-        <v>10.34987508820818</v>
+        <v>5.525048822742694</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.893030043645768</v>
+        <v>2.018255812838583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.876606135426762</v>
+        <v>4.986093837371828</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.70649856646093</v>
+        <v>12.81801201354629</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>28.78299653715303</v>
+        <v>24.33536627345687</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46.95478513346802</v>
+        <v>51.81869679816145</v>
       </c>
       <c r="C23">
-        <v>22.87436629161191</v>
+        <v>31.18864952821259</v>
       </c>
       <c r="D23">
-        <v>11.9500535333905</v>
+        <v>7.996931297323187</v>
       </c>
       <c r="E23">
-        <v>10.35740015694204</v>
+        <v>5.546912711516925</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.895770203856253</v>
+        <v>2.031118995604984</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.86968106611702</v>
+        <v>4.94231285709229</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.70297458042356</v>
+        <v>12.63852106281632</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>28.74256980774595</v>
+        <v>24.15495769242303</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46.3607441564813</v>
+        <v>47.6420971723723</v>
       </c>
       <c r="C24">
-        <v>22.29850135898714</v>
+        <v>28.29904006491566</v>
       </c>
       <c r="D24">
-        <v>11.96981171706112</v>
+        <v>7.731201849638573</v>
       </c>
       <c r="E24">
-        <v>10.38709208972247</v>
+        <v>5.629795679595192</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.906499201192775</v>
+        <v>2.077589059758459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.84317477684275</v>
+        <v>4.785024920143089</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.69583460416841</v>
+        <v>12.00303465035892</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28.59119476406769</v>
+        <v>23.51033834207448</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>45.76393685467961</v>
+        <v>43.29177351434917</v>
       </c>
       <c r="C25">
-        <v>21.69024670564546</v>
+        <v>25.32856820244301</v>
       </c>
       <c r="D25">
-        <v>11.99916002331836</v>
+        <v>7.487548106611672</v>
       </c>
       <c r="E25">
-        <v>10.42168952531537</v>
+        <v>5.720570708026378</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.918832970437621</v>
+        <v>2.124942706142583</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.813972725128665</v>
+        <v>4.62705407180599</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.70132192599938</v>
+        <v>11.38845558133787</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>28.43169451730951</v>
+        <v>22.8751853408139</v>
       </c>
       <c r="O25">
         <v>0</v>
